--- a/Artforintrovert_test_Andrianova.xlsx
+++ b/Artforintrovert_test_Andrianova.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varvara\Documents\test_tasks_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B07415-7615-4356-B3E6-BAA03193B161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A9BB3D-0B61-4F99-9070-AAA30653D741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>Баг репорт сайта - artforintrovert.ru АНДРИАНОВА В.В.</t>
   </si>
@@ -426,9 +426,6 @@
   <si>
     <t>"визитки" любых трех случайных лекторов, по ссылке Все лекторы переход на страницу https://artforintrovert.ru/about/lectors</t>
   </si>
-  <si>
-    <t>Строка для тестирования Гитхаб</t>
-  </si>
 </sst>
 </file>
 
@@ -488,7 +485,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,12 +510,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -532,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -578,9 +569,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -604,7 +592,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="323850" cy="200025"/>
@@ -638,7 +626,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="323850" cy="200025"/>
@@ -672,7 +660,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="285750" cy="200025"/>
@@ -706,7 +694,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="200025"/>
@@ -740,7 +728,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="200025"/>
@@ -774,7 +762,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="428625" cy="200025"/>
@@ -808,7 +796,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="590550" cy="200025"/>
@@ -842,7 +830,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="790575" cy="200025"/>
@@ -876,7 +864,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="962025" cy="190500"/>
@@ -910,7 +898,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="962025" cy="180975"/>
@@ -944,7 +932,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="342900" cy="200025"/>
@@ -978,7 +966,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409575" cy="200025"/>
@@ -1012,7 +1000,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="428625" cy="200025"/>
@@ -1046,7 +1034,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="361950" cy="200025"/>
@@ -1080,7 +1068,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="200025"/>
@@ -1114,7 +1102,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="333375" cy="200025"/>
@@ -1148,7 +1136,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="200025"/>
@@ -1182,7 +1170,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="200025"/>
@@ -1216,7 +1204,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="371475" cy="200025"/>
@@ -1250,7 +1238,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="200025"/>
@@ -1284,7 +1272,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="228600" cy="200025"/>
@@ -1318,7 +1306,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666750" cy="200025"/>
@@ -1352,7 +1340,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="200025"/>
@@ -1386,7 +1374,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="342900" cy="200025"/>
@@ -1420,7 +1408,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="200025"/>
@@ -1654,11 +1642,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X994"/>
+  <dimension ref="A1:X993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1728,43 +1716,71 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="38.25" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:24" ht="25.5">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:24" ht="25.5">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="63.75">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1783,28 +1799,26 @@
     </row>
     <row r="5" spans="1:24" ht="63.75">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1821,26 +1835,28 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="63.75">
+    <row r="6" spans="1:24" ht="76.5">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
@@ -1859,28 +1875,26 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="76.5">
+    <row r="7" spans="1:24" ht="38.25">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
@@ -1899,21 +1913,21 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="38.25">
+    <row r="8" spans="1:24" ht="89.25">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -1937,28 +1951,28 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="89.25">
+    <row r="9" spans="1:24" ht="38.25">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1975,28 +1989,28 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="38.25">
+    <row r="10" spans="1:24" ht="89.25">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>35</v>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
+      <c r="E10" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2013,26 +2027,28 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="89.25">
+    <row r="11" spans="1:24" ht="76.5">
       <c r="A11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>42</v>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2051,28 +2067,26 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="76.5">
+    <row r="12" spans="1:24" ht="63.75">
       <c r="A12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
+      <c r="B12" s="9" t="s">
+        <v>49</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
+      <c r="C12" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2091,21 +2105,21 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="63.75">
+    <row r="13" spans="1:24" ht="76.5">
       <c r="A13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>49</v>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>50</v>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>47</v>
@@ -2129,26 +2143,28 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="76.5">
+    <row r="14" spans="1:24" ht="51">
       <c r="A14" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2167,28 +2183,26 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="51">
+    <row r="15" spans="1:24" ht="38.25">
       <c r="A15" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2207,24 +2221,24 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="38.25">
+    <row r="16" spans="1:24" ht="51">
       <c r="A16" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2245,24 +2259,24 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="51">
+    <row r="17" spans="1:24" ht="63.75">
       <c r="A17" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
+      <c r="B17" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2283,27 +2297,27 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="63.75">
+    <row r="18" spans="1:24" ht="51">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>69</v>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2321,26 +2335,28 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="51">
+    <row r="19" spans="1:24" ht="102">
       <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
+      <c r="G19" s="3" t="s">
+        <v>79</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="1"/>
       <c r="H19" s="12"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2359,29 +2375,29 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="102">
+    <row r="20" spans="1:24" ht="25.5">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>76</v>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2399,28 +2415,26 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="25.5">
+    <row r="21" spans="1:24" ht="38.25">
       <c r="A21" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
+      <c r="B21" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2441,22 +2455,22 @@
     </row>
     <row r="22" spans="1:24" ht="38.25">
       <c r="A22" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>88</v>
+      <c r="E22" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2479,19 +2493,19 @@
     </row>
     <row r="23" spans="1:24" ht="38.25">
       <c r="A23" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>89</v>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>31</v>
@@ -2515,24 +2529,24 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="38.25">
+    <row r="24" spans="1:24" ht="63.75">
       <c r="A24" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>92</v>
+      <c r="B24" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>94</v>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2553,21 +2567,21 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="63.75">
+    <row r="25" spans="1:24" ht="51">
       <c r="A25" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>95</v>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>15</v>
@@ -2591,27 +2605,27 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="51">
+    <row r="26" spans="1:24" ht="63.75">
       <c r="A26" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2629,27 +2643,27 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="63.75">
+    <row r="27" spans="1:24" ht="38.25">
       <c r="A27" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
+      <c r="C27" s="9" t="s">
+        <v>105</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>103</v>
+      <c r="E27" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
+      <c r="F27" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2667,21 +2681,21 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="38.25">
-      <c r="A28" s="3">
-        <v>24</v>
+    <row r="28" spans="1:24" ht="76.5">
+      <c r="A28" s="9">
+        <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>104</v>
+      <c r="B28" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>31</v>
@@ -2705,27 +2719,15 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="76.5">
-      <c r="A29" s="9">
-        <v>25</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>31</v>
-      </c>
+    <row r="29" spans="1:24" ht="12.75">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -27807,41 +27809,14 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
     </row>
-    <row r="994" spans="1:24" ht="12.75">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-      <c r="U994" s="1"/>
-      <c r="V994" s="1"/>
-      <c r="W994" s="1"/>
-      <c r="X994" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
